--- a/progetto/results/randomMergeHeapPython/heapSort.xlsx
+++ b/progetto/results/randomMergeHeapPython/heapSort.xlsx
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +364,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>0.00712275505065918</v>
+        <v>0.007238388061523438</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>1500</v>
       </c>
       <c r="B3">
-        <v>0.0163719654083252</v>
+        <v>0.01145410537719727</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>0.01618480682373047</v>
+        <v>0.01630473136901855</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>2500</v>
       </c>
       <c r="B5">
-        <v>0.02060174942016602</v>
+        <v>0.02280259132385254</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>3000</v>
       </c>
       <c r="B6">
-        <v>0.03445291519165039</v>
+        <v>0.02932071685791016</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>3500</v>
       </c>
       <c r="B7">
-        <v>0.03111743927001953</v>
+        <v>0.03849220275878906</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>4000</v>
       </c>
       <c r="B8">
-        <v>0.03534770011901855</v>
+        <v>0.03601670265197754</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>4500</v>
       </c>
       <c r="B9">
-        <v>0.04205465316772461</v>
+        <v>0.04054069519042969</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>5000</v>
       </c>
       <c r="B10">
-        <v>0.04575634002685547</v>
+        <v>0.05077385902404785</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>5500</v>
       </c>
       <c r="B11">
-        <v>0.05182528495788574</v>
+        <v>0.05536961555480957</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>6000</v>
       </c>
       <c r="B12">
-        <v>0.0726926326751709</v>
+        <v>0.0567789077758789</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>6500</v>
       </c>
       <c r="B13">
-        <v>0.1208560466766358</v>
+        <v>0.0675508975982666</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>7000</v>
       </c>
       <c r="B14">
-        <v>0.06869935989379883</v>
+        <v>0.06808853149414062</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>7500</v>
       </c>
       <c r="B15">
-        <v>0.07284235954284668</v>
+        <v>0.07548236846923828</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>8000</v>
       </c>
       <c r="B16">
-        <v>0.07828521728515625</v>
+        <v>0.07959914207458496</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8500</v>
       </c>
       <c r="B17">
-        <v>0.08270359039306641</v>
+        <v>0.08881807327270508</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9000</v>
       </c>
       <c r="B18">
-        <v>0.08898425102233888</v>
+        <v>0.09471631050109863</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>9500</v>
       </c>
       <c r="B19">
-        <v>0.09557032585144044</v>
+        <v>0.09915828704833984</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>10000</v>
       </c>
       <c r="B20">
-        <v>0.1022436618804932</v>
+        <v>0.1041507720947266</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>11000</v>
       </c>
       <c r="B21">
-        <v>0.1138346195220947</v>
+        <v>0.1251909732818604</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>12000</v>
       </c>
       <c r="B22">
-        <v>0.1246881484985352</v>
+        <v>0.1359467506408691</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>13000</v>
       </c>
       <c r="B23">
-        <v>0.1352498531341553</v>
+        <v>0.143747091293335</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>14000</v>
       </c>
       <c r="B24">
-        <v>0.150726318359375</v>
+        <v>0.1520881652832031</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>15000</v>
       </c>
       <c r="B25">
-        <v>0.1595849990844727</v>
+        <v>0.1618642807006836</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>16000</v>
       </c>
       <c r="B26">
-        <v>0.1852681636810303</v>
+        <v>0.1875710487365723</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>17000</v>
       </c>
       <c r="B27">
-        <v>0.1947622299194336</v>
+        <v>0.1914634704589844</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>18000</v>
       </c>
       <c r="B28">
-        <v>0.3752532005310059</v>
+        <v>0.2089264392852783</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>19000</v>
       </c>
       <c r="B29">
-        <v>0.2189562320709229</v>
+        <v>0.2086715698242188</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>20000</v>
       </c>
       <c r="B30">
-        <v>0.4290060997009277</v>
+        <v>0.2305147647857666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>21000</v>
       </c>
       <c r="B31">
-        <v>0.2374646663665771</v>
+        <v>0.2370977401733398</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>22000</v>
       </c>
       <c r="B32">
-        <v>0.2527730464935303</v>
+        <v>0.2461700439453125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>23000</v>
       </c>
       <c r="B33">
-        <v>0.2647826671600342</v>
+        <v>0.284698486328125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>24000</v>
       </c>
       <c r="B34">
-        <v>0.3606243133544922</v>
+        <v>0.2744598388671875</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>25000</v>
       </c>
       <c r="B35">
-        <v>0.3896584510803223</v>
+        <v>0.2879328727722168</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>26000</v>
       </c>
       <c r="B36">
-        <v>0.305246114730835</v>
+        <v>0.3045921325683594</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>27000</v>
       </c>
       <c r="B37">
-        <v>0.3415484428405762</v>
+        <v>0.3098306655883789</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>28000</v>
       </c>
       <c r="B38">
-        <v>0.3423876762390137</v>
+        <v>0.3219079971313477</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>29000</v>
       </c>
       <c r="B39">
-        <v>0.4158692359924317</v>
+        <v>0.3395481109619141</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>30000</v>
       </c>
       <c r="B40">
-        <v>0.4766566753387451</v>
+        <v>0.3508520126342773</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>31000</v>
       </c>
       <c r="B41">
-        <v>0.3834905624389648</v>
+        <v>0.3622217178344727</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>32000</v>
       </c>
       <c r="B42">
-        <v>0.4156618118286133</v>
+        <v>0.3741843700408936</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>33000</v>
       </c>
       <c r="B43">
-        <v>0.4060337543487549</v>
+        <v>0.3867397308349609</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>34000</v>
       </c>
       <c r="B44">
-        <v>0.4611642360687256</v>
+        <v>0.4021546840667725</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>35000</v>
       </c>
       <c r="B45">
-        <v>0.4169521331787109</v>
+        <v>0.4086811542510986</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>36000</v>
       </c>
       <c r="B46">
-        <v>0.4287948608398438</v>
+        <v>0.4381585121154785</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>37000</v>
       </c>
       <c r="B47">
-        <v>0.4452428817749024</v>
+        <v>0.4367852210998535</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>38000</v>
       </c>
       <c r="B48">
-        <v>0.4598827362060547</v>
+        <v>0.4535162448883057</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>39000</v>
       </c>
       <c r="B49">
-        <v>0.4728696346282959</v>
+        <v>0.4654951095581055</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>40000</v>
       </c>
       <c r="B50">
-        <v>0.481997013092041</v>
+        <v>0.4807476997375488</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>41000</v>
       </c>
       <c r="B51">
-        <v>0.5000774860382079</v>
+        <v>0.4992139339447022</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42000</v>
       </c>
       <c r="B52">
-        <v>0.5217738151550293</v>
+        <v>0.5061273574829102</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>43000</v>
       </c>
       <c r="B53">
-        <v>0.5274813175201416</v>
+        <v>0.5159599781036377</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>44000</v>
       </c>
       <c r="B54">
-        <v>0.532588005065918</v>
+        <v>0.5298759937286377</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45000</v>
       </c>
       <c r="B55">
-        <v>0.5477163791656494</v>
+        <v>0.5416452884674072</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>46000</v>
       </c>
       <c r="B56">
-        <v>0.5615863800048828</v>
+        <v>0.5583677291870117</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>47000</v>
       </c>
       <c r="B57">
-        <v>0.5785467624664307</v>
+        <v>0.5695328712463379</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>48000</v>
       </c>
       <c r="B58">
-        <v>0.588958740234375</v>
+        <v>0.5950131416320801</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>49000</v>
       </c>
       <c r="B59">
-        <v>0.5965914726257324</v>
+        <v>0.6023232936859131</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>50000</v>
       </c>
       <c r="B60">
-        <v>0.6087055206298828</v>
+        <v>0.6185402870178223</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>55000</v>
       </c>
       <c r="B61">
-        <v>0.6842935085296631</v>
+        <v>0.6807396411895752</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>60000</v>
       </c>
       <c r="B62">
-        <v>0.7475807666778564</v>
+        <v>0.7471051216125488</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>65000</v>
       </c>
       <c r="B63">
-        <v>0.8345866203308105</v>
+        <v>0.8169674873352051</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>70000</v>
       </c>
       <c r="B64">
-        <v>0.8813793659210205</v>
+        <v>0.8964648246765137</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>75000</v>
       </c>
       <c r="B65">
-        <v>0.9522955417633056</v>
+        <v>0.9662322998046876</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>80000</v>
       </c>
       <c r="B66">
-        <v>1.06461238861084</v>
+        <v>1.036468267440796</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>85000</v>
       </c>
       <c r="B67">
-        <v>1.096660852432251</v>
+        <v>1.110040903091431</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>90000</v>
       </c>
       <c r="B68">
-        <v>1.169979333877564</v>
+        <v>1.185101747512817</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,15 +900,7 @@
         <v>95000</v>
       </c>
       <c r="B69">
-        <v>1.242039203643799</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>100000</v>
-      </c>
-      <c r="B70">
-        <v>1.334329843521118</v>
+        <v>1.263546466827393</v>
       </c>
     </row>
   </sheetData>
